--- a/export.xlsx
+++ b/export.xlsx
@@ -1,18 +1,3 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -405,115 +390,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>cod_siafi</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>despesa_autorizada</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>781000</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12799722</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>795180</v>
-      </c>
-      <c r="B3" t="n">
-        <v>10764550.4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>740015</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10602553.2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>762600</v>
-      </c>
-      <c r="B5" t="n">
-        <v>9933136.199999999</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>791010</v>
-      </c>
-      <c r="B6" t="n">
-        <v>9775579.550000001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>791180</v>
-      </c>
-      <c r="B7" t="n">
-        <v>8629859.85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>765720</v>
-      </c>
-      <c r="B8" t="n">
-        <v>7999428.65</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>762400</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4999249.3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>786800</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4691718.9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>731050</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4503772.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>